--- a/data/trans_bre/P2A_lim_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.408489689092947</v>
+        <v>-1.6543214152941</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.620395539259146</v>
+        <v>-3.812400836832728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.28978175937624</v>
+        <v>1.25071477920231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.185572301476408</v>
+        <v>-1.300646517620931</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1180799960324185</v>
+        <v>-0.1358502786392603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1993884908643804</v>
+        <v>-0.2093604670391722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09918506007602365</v>
+        <v>0.09970131985573308</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04363669401811427</v>
+        <v>-0.04878159589961702</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.947437547188734</v>
+        <v>3.534989993435505</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.92891926817579</v>
+        <v>2.808644904309154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.974166997425798</v>
+        <v>7.84245699866987</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.934733891096132</v>
+        <v>6.638798427414544</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.401409060750655</v>
+        <v>0.3539548223774979</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2057006423263033</v>
+        <v>0.1919835594848897</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.854365596732423</v>
+        <v>0.8310436911039858</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3260708957328159</v>
+        <v>0.3045007325337309</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.02679033897769745</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.2525604507518556</v>
+        <v>-0.2525604507518528</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08573633290986438</v>
@@ -749,7 +749,7 @@
         <v>0.004202961897419989</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.02062985182278361</v>
+        <v>-0.02062985182278339</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.21032471120902</v>
+        <v>-1.090331830121811</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1000794156272237</v>
+        <v>-0.08033622080463887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.575225323906557</v>
+        <v>-1.491337452026071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.250190134997223</v>
+        <v>-2.256341057533857</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2039942536282073</v>
+        <v>-0.2030658713143585</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01094275471299135</v>
+        <v>-0.01173196570155102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2177307471721601</v>
+        <v>-0.2118394373309574</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1669106798226524</v>
+        <v>-0.1719049095074787</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.953858581851631</v>
+        <v>2.123435207555146</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.864450927864581</v>
+        <v>3.84778501112639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.647690235385421</v>
+        <v>1.700802546209948</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.489938919768653</v>
+        <v>1.604290874980931</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4650620131883778</v>
+        <v>0.5074230712405264</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.576126745858077</v>
+        <v>0.6100442811591615</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.304242245069681</v>
+        <v>0.3146715458690703</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1352580639780706</v>
+        <v>0.1436338748365009</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.7310565027617483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.214170133031518</v>
+        <v>-1.214170133031517</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5474382308416939</v>
@@ -849,7 +849,7 @@
         <v>0.1769902811913157</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1334157877725631</v>
+        <v>-0.1334157877725629</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.02668019538836</v>
+        <v>-0.4417023579261483</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6081397717056017</v>
+        <v>-0.7598893806883715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.889498704367695</v>
+        <v>-1.980456312058724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.318317654774666</v>
+        <v>-4.391422614152495</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2476945982162452</v>
+        <v>-0.1343001167963763</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1144619284138861</v>
+        <v>-0.1292881149708272</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3592659453425929</v>
+        <v>-0.360447757866075</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4045774895820045</v>
+        <v>-0.3858813169251316</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.650318390971467</v>
+        <v>4.870669455282402</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.227128642995475</v>
+        <v>6.140930898227535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.279003700740066</v>
+        <v>3.139948088115466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.536926205289286</v>
+        <v>1.490389043306023</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.767143182856717</v>
+        <v>1.877141111159709</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.607647432079175</v>
+        <v>1.622477456092057</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.017994711121107</v>
+        <v>1.119109986394769</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2114853522736981</v>
+        <v>0.2061102030818204</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1759059023563641</v>
+        <v>0.227992101711534</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4457561679681982</v>
+        <v>0.4726190361891224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4301927427461662</v>
+        <v>0.3115684267714696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7915590060265553</v>
+        <v>-0.6681176194402142</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02377118636118043</v>
+        <v>0.02736787634645289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04447067404243622</v>
+        <v>0.04554798543859609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05350207949889686</v>
+        <v>0.0374136879743184</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0538322332773826</v>
+        <v>-0.04663040404724717</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.864098767530309</v>
+        <v>2.706188937672979</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.534371989398974</v>
+        <v>3.489654759717305</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.053597860224029</v>
+        <v>3.045049410417253</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.447679349364044</v>
+        <v>2.549144585273653</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4779128464734936</v>
+        <v>0.4531655125948269</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4049282593991211</v>
+        <v>0.4007146004292143</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4773745388328752</v>
+        <v>0.4771242678028208</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1910616611835171</v>
+        <v>0.1988017892561287</v>
       </c>
     </row>
     <row r="16">
